--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Plg-Plgrkt.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Plg-Plgrkt.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Plg</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -540,10 +540,10 @@
         <v>1.397277</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.9660838355812051</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.9660838355812051</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>47.74966533333333</v>
+        <v>18.54216466666666</v>
       </c>
       <c r="N2">
-        <v>143.248996</v>
+        <v>55.62649399999999</v>
       </c>
       <c r="O2">
-        <v>0.6131749547612827</v>
+        <v>0.3703771243387364</v>
       </c>
       <c r="P2">
-        <v>0.6131749547612828</v>
+        <v>0.3703771243387364</v>
       </c>
       <c r="Q2">
-        <v>22.239836375988</v>
+        <v>8.636180072982</v>
       </c>
       <c r="R2">
-        <v>200.158527383892</v>
+        <v>77.725620656838</v>
       </c>
       <c r="S2">
-        <v>0.6131749547612827</v>
+        <v>0.3578153528927034</v>
       </c>
       <c r="T2">
-        <v>0.6131749547612828</v>
+        <v>0.3578153528927034</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,10 +581,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -602,10 +602,10 @@
         <v>1.397277</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.9660838355812051</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.9660838355812051</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>60.674643</v>
       </c>
       <c r="O3">
-        <v>0.2597168044143358</v>
+        <v>0.4039891457947978</v>
       </c>
       <c r="P3">
-        <v>0.2597168044143359</v>
+        <v>0.4039891457947978</v>
       </c>
       <c r="Q3">
         <v>9.419920349679</v>
       </c>
       <c r="R3">
-        <v>84.779283147111</v>
+        <v>84.77928314711102</v>
       </c>
       <c r="S3">
-        <v>0.2597168044143358</v>
+        <v>0.390287383502613</v>
       </c>
       <c r="T3">
-        <v>0.2597168044143359</v>
+        <v>0.390287383502613</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,13 +643,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -664,10 +664,10 @@
         <v>1.397277</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.9660838355812051</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.9660838355812051</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,214 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.898277666666665</v>
+        <v>11.295886</v>
       </c>
       <c r="N4">
-        <v>29.694833</v>
+        <v>33.887658</v>
       </c>
       <c r="O4">
-        <v>0.1271082408243814</v>
+        <v>0.2256337298664658</v>
       </c>
       <c r="P4">
-        <v>0.1271082408243814</v>
+        <v>0.2256337298664657</v>
       </c>
       <c r="Q4">
-        <v>4.610211907749</v>
+        <v>5.261160567474001</v>
       </c>
       <c r="R4">
-        <v>41.491907169741</v>
+        <v>47.350445107266</v>
       </c>
       <c r="S4">
-        <v>0.1271082408243814</v>
+        <v>0.2179810991858888</v>
       </c>
       <c r="T4">
-        <v>0.1271082408243814</v>
+        <v>0.2179810991858887</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.01635133333333333</v>
+      </c>
+      <c r="H5">
+        <v>0.049054</v>
+      </c>
+      <c r="I5">
+        <v>0.03391616441879487</v>
+      </c>
+      <c r="J5">
+        <v>0.03391616441879487</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>18.54216466666666</v>
+      </c>
+      <c r="N5">
+        <v>55.62649399999999</v>
+      </c>
+      <c r="O5">
+        <v>0.3703771243387364</v>
+      </c>
+      <c r="P5">
+        <v>0.3703771243387364</v>
+      </c>
+      <c r="Q5">
+        <v>0.3031891151862222</v>
+      </c>
+      <c r="R5">
+        <v>2.728702036676</v>
+      </c>
+      <c r="S5">
+        <v>0.01256177144603301</v>
+      </c>
+      <c r="T5">
+        <v>0.01256177144603301</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.01635133333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.049054</v>
+      </c>
+      <c r="I6">
+        <v>0.03391616441879487</v>
+      </c>
+      <c r="J6">
+        <v>0.03391616441879487</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>20.224881</v>
+      </c>
+      <c r="N6">
+        <v>60.674643</v>
+      </c>
+      <c r="O6">
+        <v>0.4039891457947978</v>
+      </c>
+      <c r="P6">
+        <v>0.4039891457947978</v>
+      </c>
+      <c r="Q6">
+        <v>0.330703770858</v>
+      </c>
+      <c r="R6">
+        <v>2.976333937722</v>
+      </c>
+      <c r="S6">
+        <v>0.01370176229218485</v>
+      </c>
+      <c r="T6">
+        <v>0.01370176229218485</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.01635133333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.049054</v>
+      </c>
+      <c r="I7">
+        <v>0.03391616441879487</v>
+      </c>
+      <c r="J7">
+        <v>0.03391616441879487</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>11.295886</v>
+      </c>
+      <c r="N7">
+        <v>33.887658</v>
+      </c>
+      <c r="O7">
+        <v>0.2256337298664658</v>
+      </c>
+      <c r="P7">
+        <v>0.2256337298664657</v>
+      </c>
+      <c r="Q7">
+        <v>0.1847027972813333</v>
+      </c>
+      <c r="R7">
+        <v>1.662325175532</v>
+      </c>
+      <c r="S7">
+        <v>0.007652630680576999</v>
+      </c>
+      <c r="T7">
+        <v>0.007652630680576997</v>
       </c>
     </row>
   </sheetData>
